--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Plxna1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Plxna1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H2">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I2">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J2">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N2">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O2">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P2">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q2">
-        <v>8.406843292665</v>
+        <v>15.21363574206</v>
       </c>
       <c r="R2">
-        <v>33.62737317066</v>
+        <v>60.85454296824</v>
       </c>
       <c r="S2">
-        <v>0.007950261234341826</v>
+        <v>0.04113401049472021</v>
       </c>
       <c r="T2">
-        <v>0.005685796284751534</v>
+        <v>0.02882563216998978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H3">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I3">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J3">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>37.2971</v>
       </c>
       <c r="O3">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P3">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q3">
-        <v>15.2389237122</v>
+        <v>15.00442441213333</v>
       </c>
       <c r="R3">
-        <v>91.4335422732</v>
+        <v>90.02654647280001</v>
       </c>
       <c r="S3">
-        <v>0.01441128616586714</v>
+        <v>0.04056835339692166</v>
       </c>
       <c r="T3">
-        <v>0.01545980092825756</v>
+        <v>0.04264385184050748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H4">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I4">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J4">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N4">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O4">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P4">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q4">
-        <v>28.127240040348</v>
+        <v>21.572764261608</v>
       </c>
       <c r="R4">
-        <v>168.763440242088</v>
+        <v>129.436585569648</v>
       </c>
       <c r="S4">
-        <v>0.0265996282239392</v>
+        <v>0.05832756394211879</v>
       </c>
       <c r="T4">
-        <v>0.02853492411258475</v>
+        <v>0.0613116330019492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H5">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I5">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J5">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N5">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O5">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P5">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q5">
-        <v>30.194175683403</v>
+        <v>38.079746983754</v>
       </c>
       <c r="R5">
-        <v>120.776702733612</v>
+        <v>152.318987935016</v>
       </c>
       <c r="S5">
-        <v>0.02855430701891533</v>
+        <v>0.102958473478867</v>
       </c>
       <c r="T5">
-        <v>0.02042121233205542</v>
+        <v>0.07215058900387082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H6">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I6">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J6">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N6">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O6">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P6">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q6">
-        <v>8.841787616177999</v>
+        <v>7.099193409000001</v>
       </c>
       <c r="R6">
-        <v>53.05072569706799</v>
+        <v>42.595160454</v>
       </c>
       <c r="S6">
-        <v>0.008361583400575074</v>
+        <v>0.01919451084151656</v>
       </c>
       <c r="T6">
-        <v>0.008969942955132161</v>
+        <v>0.02017651218101342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H7">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I7">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J7">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N7">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O7">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P7">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q7">
-        <v>19.76295403593</v>
+        <v>39.15431204379333</v>
       </c>
       <c r="R7">
-        <v>118.57772421558</v>
+        <v>234.92587226276</v>
       </c>
       <c r="S7">
-        <v>0.01868961295912604</v>
+        <v>0.1058638388501909</v>
       </c>
       <c r="T7">
-        <v>0.02004940381092527</v>
+        <v>0.1112798889081226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J8">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N8">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O8">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P8">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q8">
-        <v>4.231463981320833</v>
+        <v>7.777242935925</v>
       </c>
       <c r="R8">
-        <v>25.388783887925</v>
+        <v>46.66345761554999</v>
       </c>
       <c r="S8">
-        <v>0.004001649951600839</v>
+        <v>0.02102779361687348</v>
       </c>
       <c r="T8">
-        <v>0.004292796001986685</v>
+        <v>0.0221035866740099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J9">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>37.2971</v>
       </c>
       <c r="O9">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P9">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q9">
         <v>7.670293659277777</v>
@@ -1013,10 +1013,10 @@
         <v>69.0326429335</v>
       </c>
       <c r="S9">
-        <v>0.007253714172188746</v>
+        <v>0.02073862850587721</v>
       </c>
       <c r="T9">
-        <v>0.01167220355648642</v>
+        <v>0.03269944158420266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J10">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N10">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O10">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P10">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q10">
-        <v>14.15744280954333</v>
+        <v>11.02804295479</v>
       </c>
       <c r="R10">
-        <v>127.41698528589</v>
+        <v>99.25238659310999</v>
       </c>
       <c r="S10">
-        <v>0.0133885413142325</v>
+        <v>0.02981717469312392</v>
       </c>
       <c r="T10">
-        <v>0.02154396710905906</v>
+        <v>0.0470139557110761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J11">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N11">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O11">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P11">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q11">
-        <v>15.19780521678917</v>
+        <v>19.46644761662417</v>
       </c>
       <c r="R11">
-        <v>91.18683130073499</v>
+        <v>116.798685699745</v>
       </c>
       <c r="S11">
-        <v>0.01437240084724053</v>
+        <v>0.05263259053478011</v>
       </c>
       <c r="T11">
-        <v>0.01541808644989108</v>
+        <v>0.05532530173920171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J12">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N12">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O12">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P12">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q12">
-        <v>4.450386967601665</v>
+        <v>3.62912276375</v>
       </c>
       <c r="R12">
-        <v>40.05348270841499</v>
+        <v>32.66210487375</v>
       </c>
       <c r="S12">
-        <v>0.004208683063857546</v>
+        <v>0.009812274750210839</v>
       </c>
       <c r="T12">
-        <v>0.006772338178753914</v>
+        <v>0.0154714138840829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J13">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N13">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O13">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P13">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q13">
-        <v>9.947399428808334</v>
+        <v>20.01576755986944</v>
       </c>
       <c r="R13">
-        <v>89.52659485927499</v>
+        <v>180.141908038825</v>
       </c>
       <c r="S13">
-        <v>0.009407148594094805</v>
+        <v>0.05411781948948301</v>
       </c>
       <c r="T13">
-        <v>0.01513736972120832</v>
+        <v>0.08532977369064076</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H14">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I14">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J14">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N14">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O14">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P14">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q14">
-        <v>63.15628455317125</v>
+        <v>0.003332110665</v>
       </c>
       <c r="R14">
-        <v>252.625138212685</v>
+        <v>0.01999266399</v>
       </c>
       <c r="S14">
-        <v>0.05972621866595641</v>
+        <v>9.009225499250721E-06</v>
       </c>
       <c r="T14">
-        <v>0.0427144595860901</v>
+        <v>9.470142246811578E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H15">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I15">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J15">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>37.2971</v>
       </c>
       <c r="O15">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P15">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q15">
-        <v>114.4821865647833</v>
+        <v>0.003286288922222222</v>
       </c>
       <c r="R15">
-        <v>686.8931193886999</v>
+        <v>0.0295766003</v>
       </c>
       <c r="S15">
-        <v>0.1082645718712047</v>
+        <v>8.885334531945868E-06</v>
       </c>
       <c r="T15">
-        <v>0.1161415233482838</v>
+        <v>1.400986942801563E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H16">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I16">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J16">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N16">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O16">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P16">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q16">
-        <v>211.305470298643</v>
+        <v>0.004724895422</v>
       </c>
       <c r="R16">
-        <v>1267.832821791858</v>
+        <v>0.042524058798</v>
       </c>
       <c r="S16">
-        <v>0.1998293093657898</v>
+        <v>1.277498036433775E-05</v>
       </c>
       <c r="T16">
-        <v>0.2143681907964123</v>
+        <v>2.014283268754317E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H17">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I17">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J17">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N17">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O17">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P17">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q17">
-        <v>226.8332934162417</v>
+        <v>0.008340276656833333</v>
       </c>
       <c r="R17">
-        <v>907.3331736649669</v>
+        <v>0.050041659941</v>
       </c>
       <c r="S17">
-        <v>0.2145138045904448</v>
+        <v>2.255010132670621E-05</v>
       </c>
       <c r="T17">
-        <v>0.1534140523458209</v>
+        <v>2.370377645244678E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H18">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I18">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J18">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N18">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O18">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P18">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q18">
-        <v>66.42379728111048</v>
+        <v>0.00155487475</v>
       </c>
       <c r="R18">
-        <v>398.5427836866629</v>
+        <v>0.01399387275</v>
       </c>
       <c r="S18">
-        <v>0.06281627029048466</v>
+        <v>4.204007205697381E-06</v>
       </c>
       <c r="T18">
-        <v>0.06738656234907114</v>
+        <v>6.628629660987981E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H19">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I19">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J19">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N19">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O19">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P19">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q19">
-        <v>148.4688967371925</v>
+        <v>0.008575629320555556</v>
       </c>
       <c r="R19">
-        <v>890.813380423155</v>
+        <v>0.077180663885</v>
       </c>
       <c r="S19">
-        <v>0.140405437944237</v>
+        <v>2.318643830122348E-05</v>
       </c>
       <c r="T19">
-        <v>0.1506208463893976</v>
+        <v>3.655900314534837E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H20">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I20">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J20">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.8585525</v>
+        <v>12.605715</v>
       </c>
       <c r="N20">
-        <v>13.717105</v>
+        <v>25.21143</v>
       </c>
       <c r="O20">
-        <v>0.07603054156603396</v>
+        <v>0.1117630039729265</v>
       </c>
       <c r="P20">
-        <v>0.05736212983602292</v>
+        <v>0.08569159123379266</v>
       </c>
       <c r="Q20">
-        <v>4.602369928152501</v>
+        <v>18.3419393078925</v>
       </c>
       <c r="R20">
-        <v>27.614219568915</v>
+        <v>73.36775723157</v>
       </c>
       <c r="S20">
-        <v>0.004352411714134881</v>
+        <v>0.04959219063583359</v>
       </c>
       <c r="T20">
-        <v>0.004669077963194603</v>
+        <v>0.03475290224754618</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H21">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I21">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J21">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>37.2971</v>
       </c>
       <c r="O21">
-        <v>0.1378191055057427</v>
+        <v>0.1102260875451766</v>
       </c>
       <c r="P21">
-        <v>0.1559688500384834</v>
+        <v>0.1267697963743385</v>
       </c>
       <c r="Q21">
-        <v>8.342627760366668</v>
+        <v>18.08970890215</v>
       </c>
       <c r="R21">
-        <v>75.08364984330001</v>
+        <v>108.5382534129</v>
       </c>
       <c r="S21">
-        <v>0.007889533296482024</v>
+        <v>0.04891022030784579</v>
       </c>
       <c r="T21">
-        <v>0.01269532220545556</v>
+        <v>0.05141249308020032</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H22">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I22">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J22">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.947038</v>
+        <v>17.874762</v>
       </c>
       <c r="N22">
-        <v>68.841114</v>
+        <v>53.624286</v>
       </c>
       <c r="O22">
-        <v>0.2543795832249386</v>
+        <v>0.1584786818059203</v>
       </c>
       <c r="P22">
-        <v>0.287879470145082</v>
+        <v>0.1822645679406519</v>
       </c>
       <c r="Q22">
-        <v>15.398403326558</v>
+        <v>26.008663510719</v>
       </c>
       <c r="R22">
-        <v>138.585629939022</v>
+        <v>156.051981064314</v>
       </c>
       <c r="S22">
-        <v>0.01456210432097709</v>
+        <v>0.0703211681903132</v>
       </c>
       <c r="T22">
-        <v>0.02343238812702589</v>
+        <v>0.07391883639493908</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H23">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I23">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J23">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.6333055</v>
+        <v>31.5521185</v>
       </c>
       <c r="N23">
-        <v>49.266611</v>
+        <v>63.104237</v>
       </c>
       <c r="O23">
-        <v>0.2730727158138052</v>
+        <v>0.2797429217834727</v>
       </c>
       <c r="P23">
-        <v>0.2060228989107275</v>
+        <v>0.2144861470422096</v>
       </c>
       <c r="Q23">
-        <v>16.5299579560255</v>
+        <v>45.90989424736574</v>
       </c>
       <c r="R23">
-        <v>99.179747736153</v>
+        <v>183.639576989463</v>
       </c>
       <c r="S23">
-        <v>0.01563220335720448</v>
+        <v>0.1241293076684989</v>
       </c>
       <c r="T23">
-        <v>0.0167695477829601</v>
+        <v>0.08698655252268463</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H24">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I24">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J24">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.213392999999999</v>
+        <v>5.88225</v>
       </c>
       <c r="N24">
-        <v>21.640179</v>
+        <v>17.64675</v>
       </c>
       <c r="O24">
-        <v>0.07996412892059052</v>
+        <v>0.05215237137439226</v>
       </c>
       <c r="P24">
-        <v>0.09049480611781979</v>
+        <v>0.05997986181683985</v>
       </c>
       <c r="Q24">
-        <v>4.840482452113</v>
+        <v>8.558964921374999</v>
       </c>
       <c r="R24">
-        <v>43.56434206901699</v>
+        <v>51.35378952825</v>
       </c>
       <c r="S24">
-        <v>0.00457759216567323</v>
+        <v>0.02314138177545916</v>
       </c>
       <c r="T24">
-        <v>0.007365962634862575</v>
+        <v>0.02432530712208255</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H25">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I25">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J25">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.123205</v>
+        <v>32.44248166666667</v>
       </c>
       <c r="N25">
-        <v>48.369615</v>
+        <v>97.327445</v>
       </c>
       <c r="O25">
-        <v>0.1787339249688891</v>
+        <v>0.2876369335181116</v>
       </c>
       <c r="P25">
-        <v>0.2022718449518643</v>
+        <v>0.3308080355921674</v>
       </c>
       <c r="Q25">
-        <v>10.819331606405</v>
+        <v>47.2054167278425</v>
       </c>
       <c r="R25">
-        <v>97.37398445764502</v>
+        <v>283.232500367055</v>
       </c>
       <c r="S25">
-        <v>0.01023172547143119</v>
+        <v>0.1276320887401365</v>
       </c>
       <c r="T25">
-        <v>0.01646422503033309</v>
+        <v>0.1341618139902587</v>
       </c>
     </row>
   </sheetData>
